--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziund\source\repos\HasegawaShin\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA9DD1-08EA-41D7-A5DE-48ACC24BFF4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -662,11 +661,31 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>長谷川心</t>
+    <rPh sb="0" eb="3">
+      <t>ハセガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長谷川心</t>
+    <rPh sb="0" eb="4">
+      <t>ハセガワシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1437,11 +1456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1596,9 +1615,15 @@
       <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="20">
+        <v>44494</v>
+      </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1613,9 +1638,15 @@
       <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="20">
+        <v>44494</v>
+      </c>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1632,9 +1663,15 @@
       <c r="E11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="20">
+        <v>44494</v>
+      </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1649,9 +1686,15 @@
       <c r="E12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="20">
+        <v>44494</v>
+      </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3890,7 +3933,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F193" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F193">
       <formula1>$AA$2:$AA$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -663,6 +663,23 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>長谷川心</t>
+    <rPh sb="0" eb="3">
+      <t>ハセガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長谷川心</t>
+    <rPh sb="0" eb="4">
+      <t>ハセガワシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>長谷川心</t>
@@ -1459,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1730,9 +1747,15 @@
       <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
+      <c r="F14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="20">
+        <v>44494</v>
+      </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1751,9 +1774,15 @@
       <c r="E15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="20"/>
+      <c r="F15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="20">
+        <v>44494</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1808,9 +1837,15 @@
       <c r="E18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="20"/>
+      <c r="F18" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="20">
+        <v>44494</v>
+      </c>
       <c r="I18" s="21" t="s">
         <v>46</v>
       </c>
@@ -1831,9 +1866,15 @@
       <c r="E19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="20"/>
+      <c r="F19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="20">
+        <v>44494</v>
+      </c>
       <c r="I19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1850,9 +1891,15 @@
       <c r="E20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
+      <c r="F20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="20">
+        <v>44494</v>
+      </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1867,9 +1914,15 @@
       <c r="E21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
+      <c r="F21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="20">
+        <v>44494</v>
+      </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1884,9 +1937,15 @@
       <c r="E22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
+      <c r="F22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="20">
+        <v>44494</v>
+      </c>
       <c r="I22" s="5" t="s">
         <v>58</v>
       </c>
@@ -1903,9 +1962,15 @@
       <c r="E23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
+      <c r="F23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="20">
+        <v>44494</v>
+      </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">

--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziund\source\repos\HasegawaShin\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA9DD1-08EA-41D7-A5DE-48ACC24BFF4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -662,11 +661,48 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>長谷川心</t>
+    <rPh sb="0" eb="3">
+      <t>ハセガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長谷川心</t>
+    <rPh sb="0" eb="4">
+      <t>ハセガワシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長谷川心</t>
+    <rPh sb="0" eb="3">
+      <t>ハセガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長谷川心</t>
+    <rPh sb="0" eb="4">
+      <t>ハセガワシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1437,11 +1473,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1596,9 +1632,15 @@
       <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="20">
+        <v>44494</v>
+      </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1613,9 +1655,15 @@
       <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="20">
+        <v>44494</v>
+      </c>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1632,9 +1680,15 @@
       <c r="E11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="20">
+        <v>44494</v>
+      </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1649,9 +1703,15 @@
       <c r="E12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="20">
+        <v>44494</v>
+      </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1687,9 +1747,15 @@
       <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
+      <c r="F14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="20">
+        <v>44494</v>
+      </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1708,9 +1774,15 @@
       <c r="E15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="20"/>
+      <c r="F15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="20">
+        <v>44494</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1765,9 +1837,15 @@
       <c r="E18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="20"/>
+      <c r="F18" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="20">
+        <v>44494</v>
+      </c>
       <c r="I18" s="21" t="s">
         <v>46</v>
       </c>
@@ -1788,9 +1866,15 @@
       <c r="E19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="20"/>
+      <c r="F19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="20">
+        <v>44494</v>
+      </c>
       <c r="I19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1807,9 +1891,15 @@
       <c r="E20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
+      <c r="F20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="20">
+        <v>44494</v>
+      </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1824,9 +1914,15 @@
       <c r="E21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
+      <c r="F21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="20">
+        <v>44494</v>
+      </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1841,9 +1937,15 @@
       <c r="E22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
+      <c r="F22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="20">
+        <v>44494</v>
+      </c>
       <c r="I22" s="5" t="s">
         <v>58</v>
       </c>
@@ -1860,9 +1962,15 @@
       <c r="E23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
+      <c r="F23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="20">
+        <v>44494</v>
+      </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3890,7 +3998,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F193" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F193">
       <formula1>$AA$2:$AA$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -1476,7 +1476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziund\source\repos\HasegawaShin\OOP2021\SendMail\SendMail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\source\repos\HasegawaShin\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460FA0B6-ED90-4482-9213-9F0F45E96A61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -698,11 +699,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>長谷川心</t>
+    <rPh sb="0" eb="4">
+      <t>ハセガワシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1473,11 +1481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1730,9 +1738,15 @@
       <c r="E13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="20"/>
+      <c r="F13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="20">
+        <v>44497</v>
+      </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1818,9 +1832,15 @@
       <c r="E17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="20"/>
+      <c r="F17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="20">
+        <v>44497</v>
+      </c>
       <c r="I17" s="21" t="s">
         <v>52</v>
       </c>
@@ -3998,7 +4018,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F193">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F193" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$AA$2:$AA$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziund\source\repos\HasegawaShin\OOP2021\SendMail\SendMail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\source\repos\HasegawaShin\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA3F9C-1C1E-4E59-BB76-81406CBF6848}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -698,11 +699,18 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>長谷川心</t>
+    <rPh sb="0" eb="4">
+      <t>ハセガワシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1473,11 +1481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1730,9 +1738,15 @@
       <c r="E13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="20"/>
+      <c r="F13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="20">
+        <v>44497</v>
+      </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1818,9 +1832,15 @@
       <c r="E17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="20"/>
+      <c r="F17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="20">
+        <v>44497</v>
+      </c>
       <c r="I17" s="21" t="s">
         <v>52</v>
       </c>
@@ -3998,7 +4018,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F193">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F193" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$AA$2:$AA$3</formula1>
     </dataValidation>
   </dataValidations>
